--- a/Kaue/WebMVCImobiliaria/Pasta1.xlsx
+++ b/Kaue/WebMVCImobiliaria/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Kaue\WebMVCImobiliaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E218AC-A9E7-45FE-9D16-CD690578706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815CFCE-8ED7-4CFC-B6B8-97FD7F349EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5CCD73E2-765B-4A0C-9CAB-F4C4A950FA6B}"/>
+    <workbookView xWindow="915" yWindow="4365" windowWidth="26550" windowHeight="11835" xr2:uid="{5CCD73E2-765B-4A0C-9CAB-F4C4A950FA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="4">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -639,8 +639,8 @@
       <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
+      <c r="L2" s="4">
+        <v>3000000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="3">
-        <v>2100000</v>
+        <v>2500000</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -678,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="3">
-        <v>900000</v>
+        <v>1100000</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -716,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="3">
-        <v>2100000</v>
+        <v>2300000</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -754,7 +754,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="3">
-        <v>3600000</v>
+        <v>3200000</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -792,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
